--- a/3_Results/32_ResultsVMMC/vmmc_spillover_interaction.xlsx
+++ b/3_Results/32_ResultsVMMC/vmmc_spillover_interaction.xlsx
@@ -456,7 +456,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Y1_ik ~ T_k + gender + age + marital_status + education + monthly_income + alcohol_weekly + partners_12mos + prop_began_infected + prop_male + prop_vlsupp + T_k * gender + T_k * age + T_k * monthly_income + T_k * prop_began_infected</t>
+          <t>Y1_ik ~ T_k + gender + age + marital_status + education + alcohol_weekly + partners_12mos + prop_began_infected + prop_male + prop_vlsupp + monthly_income + T_k * gender + T_k * age + T_k * monthly_income + T_k * education + T_k * prop_began_infected</t>
         </is>
       </c>
     </row>
@@ -468,7 +468,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Y1_ik ~ T_k + gender + age + education + alcohol_weekly + prop_began_infected + prop_male</t>
+          <t>Y1_ik ~ T_k + gender + age + marital_status + education + alcohol_weekly + partners_12mos + prop_began_infected + prop_male + prop_vlsupp</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Y1_ik ~ T_k + Z1_k + gender + age + marital_status + education + monthly_income + alcohol_weekly + partners_12mos + prop_began_infected + prop_male + prop_vlsupp + T_k * gender + T_k * age + T_k * monthly_income + T_k * prop_began_infected</t>
+          <t>Y1_ik ~ T_k + Z1_k + gender + age + marital_status + education + alcohol_weekly + partners_12mos + prop_began_infected + prop_male + prop_vlsupp + monthly_income + T_k * gender + T_k * age + T_k * monthly_income + T_k * education + T_k * prop_began_infected</t>
         </is>
       </c>
     </row>
@@ -492,7 +492,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Y1_ik ~ T_k + Z1_k + gender + age + education + alcohol_weekly + prop_began_infected + prop_male</t>
+          <t>Y1_ik ~ T_k + Z1_k + gender + age + marital_status + education + alcohol_weekly + partners_12mos + prop_began_infected + prop_male + prop_vlsupp</t>
         </is>
       </c>
     </row>
@@ -569,20 +569,20 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-0.42 (-0.83, 0)</t>
+          <t>-0.32 (-0.81, 0.16)</t>
         </is>
       </c>
       <c r="E2">
-        <v>0.05</v>
+        <v>0.19</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="H2">
-        <v>0.21</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="3">
@@ -603,20 +603,20 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-0.3 (-0.78, 0.19)</t>
+          <t>-0.21 (-0.75, 0.34)</t>
         </is>
       </c>
       <c r="E3">
-        <v>0.23</v>
+        <v>0.46</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="H3">
-        <v>0.25</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="4">
@@ -690,17 +690,17 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.36 (-1.6, 2.31)</t>
+          <t>0.35 (-1.59, 2.29)</t>
         </is>
       </c>
       <c r="E6">
         <v>0.36</v>
       </c>
       <c r="G6">
+        <v>0.98</v>
+      </c>
+      <c r="H6">
         <v>0.99</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -721,7 +721,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.3 (NA, NA)</t>
+          <t>0.36 (NA, NA)</t>
         </is>
       </c>
     </row>
@@ -798,20 +798,20 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.66 (0.43, 1)</t>
+          <t>0.73 (0.45, 1.18)</t>
         </is>
       </c>
       <c r="E2">
-        <v>0.05</v>
+        <v>0.19</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="H2">
-        <v>0.21</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="3">
@@ -832,20 +832,20 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.74 (0.46, 1.21)</t>
+          <t>0.81 (0.47, 1.4)</t>
         </is>
       </c>
       <c r="E3">
-        <v>0.23</v>
+        <v>0.46</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="H3">
-        <v>0.25</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="4">
@@ -897,7 +897,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.88 (NA, NA)</t>
+          <t>0.89 (NA, NA)</t>
         </is>
       </c>
     </row>
@@ -919,17 +919,17 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.36 (-1.6, 2.31)</t>
+          <t>0.35 (-1.59, 2.29)</t>
         </is>
       </c>
       <c r="E6">
         <v>0.36</v>
       </c>
       <c r="G6">
+        <v>0.98</v>
+      </c>
+      <c r="H6">
         <v>0.99</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -950,7 +950,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.3 (NA, NA)</t>
+          <t>0.36 (NA, NA)</t>
         </is>
       </c>
     </row>
@@ -961,7 +961,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1017,20 +1017,20 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-0.42 (-0.83, 0)</t>
+          <t>-0.32 (-0.81, 0.16)</t>
         </is>
       </c>
       <c r="D2">
-        <v>0.05</v>
+        <v>0.19</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="G2">
-        <v>0.21</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="3">
@@ -1046,7 +1046,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-1.11 (-1.69, -0.54)</t>
+          <t>-1.16 (-1.74, -0.58)</t>
         </is>
       </c>
       <c r="D3">
@@ -1059,7 +1059,7 @@
         <v>0.09</v>
       </c>
       <c r="G3">
-        <v>0.29</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="4">
@@ -1075,11 +1075,11 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-0.04 (-0.06, -0.02)</t>
+          <t>-0.03 (-0.05, 0)</t>
         </is>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1099,25 +1099,25 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>educationJunior secondary</t>
+          <t>marital_statusMarried</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1.21 (0.35, 2.07)</t>
+          <t>-0.61 (-2.73, 1.51)</t>
         </is>
       </c>
       <c r="D5">
-        <v>0.01</v>
+        <v>0.57</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.19</v>
+        <v>1.17</v>
       </c>
       <c r="G5">
-        <v>0.44</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="6">
@@ -1128,12 +1128,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>educationMissing</t>
+          <t>marital_statusSingle/never married</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-12.17 (-513.93, 489.58)</t>
+          <t>0.05 (-2, 2.09)</t>
         </is>
       </c>
       <c r="D6">
@@ -1143,10 +1143,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>65537.64999999999</v>
+        <v>1.09</v>
       </c>
       <c r="G6">
-        <v>256</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="7">
@@ -1157,25 +1157,25 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>educationNon-formal</t>
+          <t>marital_statusWidowed</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1.37 (0.21, 2.53)</t>
+          <t>-16.16 (-284.37, 252.04)</t>
         </is>
       </c>
       <c r="D7">
-        <v>0.02</v>
+        <v>0.91</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.35</v>
+        <v>18725.6</v>
       </c>
       <c r="G7">
-        <v>0.59</v>
+        <v>136.84</v>
       </c>
     </row>
     <row r="8">
@@ -1186,12 +1186,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>educationPrimary</t>
+          <t>educationJunior secondary</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1.33 (0.32, 2.34)</t>
+          <t>1.19 (0.33, 2.05)</t>
         </is>
       </c>
       <c r="D8">
@@ -1201,10 +1201,10 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.26</v>
+        <v>0.19</v>
       </c>
       <c r="G8">
-        <v>0.51</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="9">
@@ -1215,25 +1215,25 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>educationSenior secondary</t>
+          <t>educationNon-formal</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.86 (-0.05, 1.78)</t>
+          <t>1.4 (0.23, 2.56)</t>
         </is>
       </c>
       <c r="D9">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.22</v>
+        <v>0.35</v>
       </c>
       <c r="G9">
-        <v>0.46</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="10">
@@ -1244,25 +1244,25 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>alcohol_weekly</t>
+          <t>educationPrimary</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.35 (0.18, 0.52)</t>
+          <t>1.36 (0.35, 2.37)</t>
         </is>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.01</v>
+        <v>0.26</v>
       </c>
       <c r="G10">
-        <v>0.09</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="11">
@@ -1273,25 +1273,25 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>prop_began_infected</t>
+          <t>educationSenior secondary</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>3.75 (0.32, 7.18)</t>
+          <t>0.84 (-0.07, 1.75)</t>
         </is>
       </c>
       <c r="D11">
-        <v>0.03</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.06</v>
+        <v>0.22</v>
       </c>
       <c r="G11">
-        <v>1.75</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="12">
@@ -1302,25 +1302,141 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>alcohol_weekly</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0.32 (0.15, 0.5)</t>
+        </is>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0.01</v>
+      </c>
+      <c r="G12">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Total Effects Model</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>partners_12mos</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0.12 (-0.16, 0.39)</t>
+        </is>
+      </c>
+      <c r="D13">
+        <v>0.41</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0.02</v>
+      </c>
+      <c r="G13">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Total Effects Model</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>prop_began_infected</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>4.64 (0.41, 8.87)</t>
+        </is>
+      </c>
+      <c r="D14">
+        <v>0.03</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>4.66</v>
+      </c>
+      <c r="G14">
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Total Effects Model</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
           <t>prop_male</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>6.43 (-2.35, 15.21)</t>
-        </is>
-      </c>
-      <c r="D12">
-        <v>0.15</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>20.05</v>
-      </c>
-      <c r="G12">
-        <v>4.48</v>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>5.59 (-3.38, 14.57)</t>
+        </is>
+      </c>
+      <c r="D15">
+        <v>0.22</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>20.96</v>
+      </c>
+      <c r="G15">
+        <v>4.58</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Total Effects Model</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>prop_vlsupp</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>-1.42 (-5.38, 2.53)</t>
+        </is>
+      </c>
+      <c r="D16">
+        <v>0.48</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>4.07</v>
+      </c>
+      <c r="G16">
+        <v>2.02</v>
       </c>
     </row>
   </sheetData>
@@ -1330,7 +1446,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1386,20 +1502,20 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.66 (0.43, 1)</t>
+          <t>0.73 (0.45, 1.18)</t>
         </is>
       </c>
       <c r="D2">
-        <v>0.05</v>
+        <v>0.19</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="G2">
-        <v>0.21</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="3">
@@ -1415,7 +1531,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.33 (0.18, 0.59)</t>
+          <t>0.31 (0.18, 0.56)</t>
         </is>
       </c>
       <c r="D3">
@@ -1428,7 +1544,7 @@
         <v>0.09</v>
       </c>
       <c r="G3">
-        <v>0.29</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="4">
@@ -1444,11 +1560,11 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.96 (0.94, 0.98)</t>
+          <t>0.97 (0.95, 1)</t>
         </is>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1468,25 +1584,25 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>educationJunior secondary</t>
+          <t>marital_statusMarried</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>3.35 (1.42, 7.9)</t>
+          <t>0.54 (0.07, 4.53)</t>
         </is>
       </c>
       <c r="D5">
-        <v>0.01</v>
+        <v>0.57</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.19</v>
+        <v>1.17</v>
       </c>
       <c r="G5">
-        <v>0.44</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="6">
@@ -1497,12 +1613,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>educationMissing</t>
+          <t>marital_statusSingle/never married</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0 (0, 4.19764209301335e+212)</t>
+          <t>1.05 (0.14, 8.08)</t>
         </is>
       </c>
       <c r="D6">
@@ -1512,10 +1628,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>65537.64999999999</v>
+        <v>1.09</v>
       </c>
       <c r="G6">
-        <v>256</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="7">
@@ -1526,25 +1642,25 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>educationNon-formal</t>
+          <t>marital_statusWidowed</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>3.93 (1.24, 12.51)</t>
+          <t>0 (0, 2.8835313577326e+109)</t>
         </is>
       </c>
       <c r="D7">
-        <v>0.02</v>
+        <v>0.91</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.35</v>
+        <v>18725.6</v>
       </c>
       <c r="G7">
-        <v>0.59</v>
+        <v>136.84</v>
       </c>
     </row>
     <row r="8">
@@ -1555,12 +1671,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>educationPrimary</t>
+          <t>educationJunior secondary</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>3.78 (1.38, 10.36)</t>
+          <t>3.29 (1.39, 7.77)</t>
         </is>
       </c>
       <c r="D8">
@@ -1570,10 +1686,10 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.26</v>
+        <v>0.19</v>
       </c>
       <c r="G8">
-        <v>0.51</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="9">
@@ -1584,25 +1700,25 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>educationSenior secondary</t>
+          <t>educationNon-formal</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2.37 (0.95, 5.9)</t>
+          <t>4.04 (1.26, 12.97)</t>
         </is>
       </c>
       <c r="D9">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.22</v>
+        <v>0.35</v>
       </c>
       <c r="G9">
-        <v>0.46</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="10">
@@ -1613,25 +1729,25 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>alcohol_weekly</t>
+          <t>educationPrimary</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1.42 (1.2, 1.69)</t>
+          <t>3.91 (1.43, 10.73)</t>
         </is>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.01</v>
+        <v>0.26</v>
       </c>
       <c r="G10">
-        <v>0.09</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="11">
@@ -1642,25 +1758,25 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>prop_began_infected</t>
+          <t>educationSenior secondary</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>42.53 (1.38, 1309.94)</t>
+          <t>2.31 (0.93, 5.76)</t>
         </is>
       </c>
       <c r="D11">
-        <v>0.03</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.06</v>
+        <v>0.22</v>
       </c>
       <c r="G11">
-        <v>1.75</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="12">
@@ -1671,25 +1787,141 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>alcohol_weekly</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1.38 (1.16, 1.64)</t>
+        </is>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0.01</v>
+      </c>
+      <c r="G12">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Total Effects Model</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>partners_12mos</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1.12 (0.85, 1.48)</t>
+        </is>
+      </c>
+      <c r="D13">
+        <v>0.41</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0.02</v>
+      </c>
+      <c r="G13">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Total Effects Model</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>prop_began_infected</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>103.33 (1.5, 7112.68)</t>
+        </is>
+      </c>
+      <c r="D14">
+        <v>0.03</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>4.66</v>
+      </c>
+      <c r="G14">
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Total Effects Model</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
           <t>prop_male</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>620.26 (0.1, 4015998.86)</t>
-        </is>
-      </c>
-      <c r="D12">
-        <v>0.15</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>20.05</v>
-      </c>
-      <c r="G12">
-        <v>4.48</v>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>269.04 (0.03, 2124300.83)</t>
+        </is>
+      </c>
+      <c r="D15">
+        <v>0.22</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>20.96</v>
+      </c>
+      <c r="G15">
+        <v>4.58</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Total Effects Model</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>prop_vlsupp</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0.24 (0, 12.54)</t>
+        </is>
+      </c>
+      <c r="D16">
+        <v>0.48</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>4.07</v>
+      </c>
+      <c r="G16">
+        <v>2.02</v>
       </c>
     </row>
   </sheetData>
@@ -1699,7 +1931,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1755,20 +1987,20 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-0.3 (-0.78, 0.19)</t>
+          <t>-0.21 (-0.75, 0.34)</t>
         </is>
       </c>
       <c r="D2">
-        <v>0.23</v>
+        <v>0.46</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="G2">
-        <v>0.25</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="3">
@@ -1784,20 +2016,20 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-1.87 (-5.75, 2.01)</t>
+          <t>-1.8 (-5.72, 2.12)</t>
         </is>
       </c>
       <c r="D3">
-        <v>0.35</v>
+        <v>0.37</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>3.92</v>
+        <v>4</v>
       </c>
       <c r="G3">
-        <v>1.98</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1813,7 +2045,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-1.12 (-1.7, -0.54)</t>
+          <t>-1.17 (-1.75, -0.59)</t>
         </is>
       </c>
       <c r="D4">
@@ -1826,7 +2058,7 @@
         <v>0.09</v>
       </c>
       <c r="G4">
-        <v>0.29</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="5">
@@ -1842,11 +2074,11 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-0.04 (-0.06, -0.02)</t>
+          <t>-0.03 (-0.05, 0)</t>
         </is>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1866,25 +2098,25 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>educationJunior secondary</t>
+          <t>marital_statusMarried</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.19 (0.33, 2.05)</t>
+          <t>-0.65 (-2.78, 1.47)</t>
         </is>
       </c>
       <c r="D6">
-        <v>0.01</v>
+        <v>0.55</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.19</v>
+        <v>1.17</v>
       </c>
       <c r="G6">
-        <v>0.44</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="7">
@@ -1895,25 +2127,25 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>educationMissing</t>
+          <t>marital_statusSingle/never married</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-16.48 (-726.06, 693.11)</t>
+          <t>0 (-2.04, 2.05)</t>
         </is>
       </c>
       <c r="D7">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>131073.24</v>
+        <v>1.09</v>
       </c>
       <c r="G7">
-        <v>362.04</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="8">
@@ -1924,25 +2156,25 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>educationNon-formal</t>
+          <t>marital_statusWidowed</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1.35 (0.19, 2.5)</t>
+          <t>-20.62 (-730.21, 688.97)</t>
         </is>
       </c>
       <c r="D8">
-        <v>0.02</v>
+        <v>0.95</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.35</v>
+        <v>131075.22</v>
       </c>
       <c r="G8">
-        <v>0.59</v>
+        <v>362.04</v>
       </c>
     </row>
     <row r="9">
@@ -1953,12 +2185,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>educationPrimary</t>
+          <t>educationJunior secondary</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1.3 (0.29, 2.31)</t>
+          <t>1.17 (0.32, 2.03)</t>
         </is>
       </c>
       <c r="D9">
@@ -1968,10 +2200,10 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.26</v>
+        <v>0.19</v>
       </c>
       <c r="G9">
-        <v>0.51</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="10">
@@ -1982,25 +2214,25 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>educationSenior secondary</t>
+          <t>educationNon-formal</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.86 (-0.06, 1.77)</t>
+          <t>1.37 (0.21, 2.54)</t>
         </is>
       </c>
       <c r="D10">
-        <v>0.07000000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.22</v>
+        <v>0.35</v>
       </c>
       <c r="G10">
-        <v>0.47</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="11">
@@ -2011,25 +2243,25 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>alcohol_weekly</t>
+          <t>educationPrimary</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.35 (0.18, 0.52)</t>
+          <t>1.34 (0.33, 2.35)</t>
         </is>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.01</v>
+        <v>0.27</v>
       </c>
       <c r="G11">
-        <v>0.09</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="12">
@@ -2040,25 +2272,25 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>prop_began_infected</t>
+          <t>educationSenior secondary</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>3.21 (-0.43, 6.85)</t>
+          <t>0.83 (-0.08, 1.74)</t>
         </is>
       </c>
       <c r="D12">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>3.45</v>
+        <v>0.22</v>
       </c>
       <c r="G12">
-        <v>1.86</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="13">
@@ -2069,25 +2301,141 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>alcohol_weekly</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0.32 (0.14, 0.5)</t>
+        </is>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0.01</v>
+      </c>
+      <c r="G13">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Direct Effects Model</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>partners_12mos</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0.12 (-0.16, 0.4)</t>
+        </is>
+      </c>
+      <c r="D14">
+        <v>0.4</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0.02</v>
+      </c>
+      <c r="G14">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Direct Effects Model</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>prop_began_infected</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>4.06 (-0.37, 8.49)</t>
+        </is>
+      </c>
+      <c r="D15">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>5.11</v>
+      </c>
+      <c r="G15">
+        <v>2.26</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Direct Effects Model</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
           <t>prop_male</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>6.92 (-1.81, 15.66)</t>
-        </is>
-      </c>
-      <c r="D13">
-        <v>0.12</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>19.86</v>
-      </c>
-      <c r="G13">
-        <v>4.46</v>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>6.1 (-2.88, 15.08)</t>
+        </is>
+      </c>
+      <c r="D16">
+        <v>0.18</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>21</v>
+      </c>
+      <c r="G16">
+        <v>4.58</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Direct Effects Model</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>prop_vlsupp</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>-1.32 (-5.27, 2.63)</t>
+        </is>
+      </c>
+      <c r="D17">
+        <v>0.51</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>4.07</v>
+      </c>
+      <c r="G17">
+        <v>2.02</v>
       </c>
     </row>
   </sheetData>
@@ -2097,7 +2445,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2153,20 +2501,20 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.74 (0.46, 1.21)</t>
+          <t>0.81 (0.47, 1.4)</t>
         </is>
       </c>
       <c r="D2">
-        <v>0.23</v>
+        <v>0.46</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="G2">
-        <v>0.25</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="3">
@@ -2182,20 +2530,20 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.15 (0, 7.48)</t>
+          <t>0.17 (0, 8.32)</t>
         </is>
       </c>
       <c r="D3">
-        <v>0.35</v>
+        <v>0.37</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>3.92</v>
+        <v>4</v>
       </c>
       <c r="G3">
-        <v>1.98</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -2211,7 +2559,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.33 (0.18, 0.58)</t>
+          <t>0.31 (0.17, 0.56)</t>
         </is>
       </c>
       <c r="D4">
@@ -2224,7 +2572,7 @@
         <v>0.09</v>
       </c>
       <c r="G4">
-        <v>0.29</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="5">
@@ -2240,11 +2588,11 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.96 (0.94, 0.98)</t>
+          <t>0.97 (0.95, 1)</t>
         </is>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2264,25 +2612,25 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>educationJunior secondary</t>
+          <t>marital_statusMarried</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>3.29 (1.39, 7.76)</t>
+          <t>0.52 (0.06, 4.35)</t>
         </is>
       </c>
       <c r="D6">
-        <v>0.01</v>
+        <v>0.55</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.19</v>
+        <v>1.17</v>
       </c>
       <c r="G6">
-        <v>0.44</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="7">
@@ -2293,25 +2641,25 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>educationMissing</t>
+          <t>marital_statusSingle/never married</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0 (0, 1.03285235580549e+301)</t>
+          <t>1 (0.13, 7.74)</t>
         </is>
       </c>
       <c r="D7">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>131073.24</v>
+        <v>1.09</v>
       </c>
       <c r="G7">
-        <v>362.04</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="8">
@@ -2322,25 +2670,25 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>educationNon-formal</t>
+          <t>marital_statusWidowed</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>3.84 (1.21, 12.23)</t>
+          <t>0 (0, 1.64175549432807e+299)</t>
         </is>
       </c>
       <c r="D8">
-        <v>0.02</v>
+        <v>0.95</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.35</v>
+        <v>131075.22</v>
       </c>
       <c r="G8">
-        <v>0.59</v>
+        <v>362.04</v>
       </c>
     </row>
     <row r="9">
@@ -2351,12 +2699,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>educationPrimary</t>
+          <t>educationJunior secondary</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>3.68 (1.34, 10.07)</t>
+          <t>3.24 (1.37, 7.65)</t>
         </is>
       </c>
       <c r="D9">
@@ -2366,10 +2714,10 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.26</v>
+        <v>0.19</v>
       </c>
       <c r="G9">
-        <v>0.51</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="10">
@@ -2380,25 +2728,25 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>educationSenior secondary</t>
+          <t>educationNon-formal</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2.35 (0.95, 5.85)</t>
+          <t>3.95 (1.23, 12.68)</t>
         </is>
       </c>
       <c r="D10">
-        <v>0.07000000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.22</v>
+        <v>0.35</v>
       </c>
       <c r="G10">
-        <v>0.47</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="11">
@@ -2409,25 +2757,25 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>alcohol_weekly</t>
+          <t>educationPrimary</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1.42 (1.2, 1.68)</t>
+          <t>3.81 (1.39, 10.46)</t>
         </is>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.01</v>
+        <v>0.27</v>
       </c>
       <c r="G11">
-        <v>0.09</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="12">
@@ -2438,25 +2786,25 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>prop_began_infected</t>
+          <t>educationSenior secondary</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>24.84 (0.65, 945.66)</t>
+          <t>2.3 (0.92, 5.71)</t>
         </is>
       </c>
       <c r="D12">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>3.45</v>
+        <v>0.22</v>
       </c>
       <c r="G12">
-        <v>1.86</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="13">
@@ -2467,25 +2815,141 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>alcohol_weekly</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1.38 (1.15, 1.64)</t>
+        </is>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0.01</v>
+      </c>
+      <c r="G13">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Direct Effects Model</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>partners_12mos</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1.13 (0.85, 1.49)</t>
+        </is>
+      </c>
+      <c r="D14">
+        <v>0.4</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0.02</v>
+      </c>
+      <c r="G14">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Direct Effects Model</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>prop_began_infected</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>58.17 (0.69, 4889.57)</t>
+        </is>
+      </c>
+      <c r="D15">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>5.11</v>
+      </c>
+      <c r="G15">
+        <v>2.26</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Direct Effects Model</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
           <t>prop_male</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>1016.01 (0.16, 6319748.93)</t>
-        </is>
-      </c>
-      <c r="D13">
-        <v>0.12</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>19.86</v>
-      </c>
-      <c r="G13">
-        <v>4.46</v>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>445.64 (0.06, 3544709.67)</t>
+        </is>
+      </c>
+      <c r="D16">
+        <v>0.18</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>21</v>
+      </c>
+      <c r="G16">
+        <v>4.58</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Direct Effects Model</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>prop_vlsupp</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0.27 (0.01, 13.93)</t>
+        </is>
+      </c>
+      <c r="D17">
+        <v>0.51</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>4.07</v>
+      </c>
+      <c r="G17">
+        <v>2.02</v>
       </c>
     </row>
   </sheetData>
@@ -2495,7 +2959,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2560,7 +3024,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>monthly_income</t>
+          <t>T_k:education</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -2577,81 +3041,81 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>T_k:monthly_income</t>
+          <t>T_k:prop_began_infected</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>education</t>
+          <t>marital_status</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>monthly_income</t>
+          <t>alcohol_weekly</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>T_k:prop_began_infected</t>
+          <t>T_k:monthly_income</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>alcohol_weekly</t>
+          <t>education</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>partners_12mos</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>monthly_income</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>alcohol_weekly</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>marital_status</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>prop_began_infected</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>prop_began_infected</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>partners_12mos</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>prop_vlsupp</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>prop_male</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>prop_male</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>prop_began_infected</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>partners_12mos</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>prop_vlsupp</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>prop_male</t>
         </is>
       </c>
@@ -2659,6 +3123,11 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>monthly_income</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>prop_vlsupp</t>
         </is>
       </c>
@@ -2686,6 +3155,13 @@
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
+        <is>
+          <t>T_k*education</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>T_k*prop_began_infected</t>
         </is>
